--- a/Hardware/Assembly/PCBWay_files/pos_file_PCBWAY.xlsx
+++ b/Hardware/Assembly/PCBWay_files/pos_file_PCBWAY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisregnacq/Dropbox/Work/BioZ/BIMMS_git/Hardware/Assembly/PCBWay_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisregnacq/Dropbox/Work/BioZ/BIMMS/Hardware/Assembly/PCBWay_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E5DE65-602B-5340-9FD3-BB97F39FB9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7979A97-DFC5-F444-8C8A-43D270455197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{0DC55CDE-CEEF-384A-B50A-E9BD8774ACA3}"/>
+    <workbookView xWindow="24560" yWindow="1700" windowWidth="28800" windowHeight="16280" xr2:uid="{0DC55CDE-CEEF-384A-B50A-E9BD8774ACA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="762">
   <si>
     <t>Designator</t>
   </si>
@@ -1500,9 +1500,6 @@
     <t>118.250000</t>
   </si>
   <si>
-    <t>Q16</t>
-  </si>
-  <si>
     <t>SOT-223-3_TabPin2</t>
   </si>
   <si>
@@ -1512,9 +1509,6 @@
     <t>-37.000000</t>
   </si>
   <si>
-    <t>Q17</t>
-  </si>
-  <si>
     <t>-48.000000</t>
   </si>
   <si>
@@ -1785,12 +1779,6 @@
     <t>R55</t>
   </si>
   <si>
-    <t>R56</t>
-  </si>
-  <si>
-    <t>148.500000</t>
-  </si>
-  <si>
     <t>R57</t>
   </si>
   <si>
@@ -2320,6 +2308,12 @@
   </si>
   <si>
     <t>-78.800000</t>
+  </si>
+  <si>
+    <t>Q26</t>
+  </si>
+  <si>
+    <t>Q27</t>
   </si>
 </sst>
 </file>
@@ -2686,10 +2680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B154F10C-1572-0141-A746-62DA83F24E09}">
-  <dimension ref="A1:J322"/>
+  <dimension ref="A1:J321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G321" sqref="G321"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246:F246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2726,7 +2720,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>64</v>
@@ -2747,7 +2741,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>67</v>
@@ -2768,7 +2762,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>70</v>
@@ -2789,7 +2783,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>72</v>
@@ -2894,7 +2888,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>83</v>
@@ -2915,7 +2909,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>83</v>
@@ -2936,7 +2930,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>86</v>
@@ -2957,7 +2951,7 @@
         <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>88</v>
@@ -2978,7 +2972,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>90</v>
@@ -2999,7 +2993,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>92</v>
@@ -3020,7 +3014,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>94</v>
@@ -3146,7 +3140,7 @@
         <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>107</v>
@@ -3188,7 +3182,7 @@
         <v>112</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>113</v>
@@ -3230,7 +3224,7 @@
         <v>116</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>117</v>
@@ -3293,7 +3287,7 @@
         <v>123</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>102</v>
@@ -3314,7 +3308,7 @@
         <v>125</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>105</v>
@@ -3335,7 +3329,7 @@
         <v>126</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>127</v>
@@ -3356,7 +3350,7 @@
         <v>129</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>130</v>
@@ -3377,7 +3371,7 @@
         <v>131</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>132</v>
@@ -3398,7 +3392,7 @@
         <v>134</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>135</v>
@@ -3419,7 +3413,7 @@
         <v>136</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>137</v>
@@ -3440,7 +3434,7 @@
         <v>139</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>140</v>
@@ -3461,7 +3455,7 @@
         <v>142</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>143</v>
@@ -3482,7 +3476,7 @@
         <v>144</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>145</v>
@@ -3524,7 +3518,7 @@
         <v>149</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>150</v>
@@ -3545,7 +3539,7 @@
         <v>152</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>153</v>
@@ -3566,7 +3560,7 @@
         <v>155</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>156</v>
@@ -3587,7 +3581,7 @@
         <v>158</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>159</v>
@@ -3608,7 +3602,7 @@
         <v>160</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>161</v>
@@ -3650,7 +3644,7 @@
         <v>165</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>166</v>
@@ -3776,7 +3770,7 @@
         <v>180</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>181</v>
@@ -3797,7 +3791,7 @@
         <v>183</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>184</v>
@@ -3818,7 +3812,7 @@
         <v>185</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>186</v>
@@ -3839,7 +3833,7 @@
         <v>188</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>189</v>
@@ -3860,7 +3854,7 @@
         <v>190</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>191</v>
@@ -3881,7 +3875,7 @@
         <v>193</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>194</v>
@@ -3902,7 +3896,7 @@
         <v>196</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>197</v>
@@ -3923,7 +3917,7 @@
         <v>198</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>199</v>
@@ -3944,7 +3938,7 @@
         <v>201</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>202</v>
@@ -3986,7 +3980,7 @@
         <v>207</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>208</v>
@@ -4091,7 +4085,7 @@
         <v>219</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>220</v>
@@ -4112,7 +4106,7 @@
         <v>222</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>223</v>
@@ -4133,7 +4127,7 @@
         <v>225</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>226</v>
@@ -4154,7 +4148,7 @@
         <v>227</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>228</v>
@@ -4175,7 +4169,7 @@
         <v>229</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>230</v>
@@ -4238,7 +4232,7 @@
         <v>238</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>239</v>
@@ -4280,7 +4274,7 @@
         <v>244</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>245</v>
@@ -4301,7 +4295,7 @@
         <v>247</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>248</v>
@@ -4322,7 +4316,7 @@
         <v>250</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>251</v>
@@ -4346,10 +4340,10 @@
         <v>74</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>7</v>
@@ -4364,7 +4358,7 @@
         <v>254</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>255</v>
@@ -4385,13 +4379,13 @@
         <v>257</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>7</v>
@@ -4406,7 +4400,7 @@
         <v>259</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>245</v>
@@ -4427,7 +4421,7 @@
         <v>260</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>261</v>
@@ -4490,7 +4484,7 @@
         <v>266</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>267</v>
@@ -4511,7 +4505,7 @@
         <v>268</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>269</v>
@@ -4532,7 +4526,7 @@
         <v>271</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>272</v>
@@ -4553,7 +4547,7 @@
         <v>274</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>275</v>
@@ -4595,7 +4589,7 @@
         <v>280</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>281</v>
@@ -4616,7 +4610,7 @@
         <v>283</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>284</v>
@@ -4637,7 +4631,7 @@
         <v>285</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>286</v>
@@ -4658,7 +4652,7 @@
         <v>288</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>289</v>
@@ -4679,7 +4673,7 @@
         <v>291</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>292</v>
@@ -4700,7 +4694,7 @@
         <v>293</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>199</v>
@@ -4721,7 +4715,7 @@
         <v>295</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>296</v>
@@ -4742,7 +4736,7 @@
         <v>297</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>298</v>
@@ -4763,7 +4757,7 @@
         <v>300</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>301</v>
@@ -4784,7 +4778,7 @@
         <v>303</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>304</v>
@@ -4826,7 +4820,7 @@
         <v>308</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>309</v>
@@ -4934,10 +4928,10 @@
         <v>311</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>7</v>
@@ -5417,10 +5411,10 @@
         <v>311</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>7</v>
@@ -6107,7 +6101,7 @@
         <v>55</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>79</v>
@@ -6128,7 +6122,7 @@
         <v>22</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>79</v>
@@ -6149,7 +6143,7 @@
         <v>21</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>79</v>
@@ -6170,7 +6164,7 @@
         <v>42</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>461</v>
@@ -6191,7 +6185,7 @@
         <v>463</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>153</v>
@@ -6212,7 +6206,7 @@
         <v>465</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>159</v>
@@ -6233,7 +6227,7 @@
         <v>466</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>467</v>
@@ -6254,7 +6248,7 @@
         <v>469</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>127</v>
@@ -6275,7 +6269,7 @@
         <v>470</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>130</v>
@@ -6296,7 +6290,7 @@
         <v>471</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>472</v>
@@ -6317,7 +6311,7 @@
         <v>473</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>474</v>
@@ -6338,7 +6332,7 @@
         <v>476</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>477</v>
@@ -6359,7 +6353,7 @@
         <v>478</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>479</v>
@@ -6380,7 +6374,7 @@
         <v>481</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>482</v>
@@ -6401,7 +6395,7 @@
         <v>484</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>319</v>
@@ -6422,7 +6416,7 @@
         <v>485</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>395</v>
@@ -6443,7 +6437,7 @@
         <v>486</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>487</v>
@@ -6464,7 +6458,7 @@
         <v>488</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>489</v>
@@ -6482,16 +6476,16 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>7</v>
@@ -6503,16 +6497,16 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>494</v>
+        <v>760</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="D182" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>7</v>
@@ -6524,13 +6518,13 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>384</v>
@@ -6545,13 +6539,13 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>384</v>
@@ -6566,13 +6560,13 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>396</v>
@@ -6587,16 +6581,16 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>7</v>
@@ -6608,16 +6602,16 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>7</v>
@@ -6629,13 +6623,13 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>384</v>
@@ -6650,10 +6644,10 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>205</v>
@@ -6671,13 +6665,13 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>390</v>
@@ -6695,10 +6689,10 @@
         <v>43</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>65</v>
@@ -6716,13 +6710,13 @@
         <v>44</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>7</v>
@@ -6737,13 +6731,13 @@
         <v>41</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>7</v>
@@ -6758,10 +6752,10 @@
         <v>29</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>71</v>
@@ -6779,13 +6773,13 @@
         <v>30</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>7</v>
@@ -6800,13 +6794,13 @@
         <v>45</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>7</v>
@@ -6821,13 +6815,13 @@
         <v>46</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>319</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>7</v>
@@ -6842,13 +6836,13 @@
         <v>31</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>7</v>
@@ -6863,13 +6857,13 @@
         <v>16</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>7</v>
@@ -6884,10 +6878,10 @@
         <v>47</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>462</v>
@@ -6905,13 +6899,13 @@
         <v>32</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>7</v>
@@ -6926,13 +6920,13 @@
         <v>15</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>7</v>
@@ -6947,10 +6941,10 @@
         <v>14</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>141</v>
@@ -6968,10 +6962,10 @@
         <v>33</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>141</v>
@@ -6989,10 +6983,10 @@
         <v>35</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>141</v>
@@ -7010,13 +7004,13 @@
         <v>34</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>327</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>7</v>
@@ -7031,10 +7025,10 @@
         <v>13</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>141</v>
@@ -7052,13 +7046,13 @@
         <v>37</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>330</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>7</v>
@@ -7073,13 +7067,13 @@
         <v>36</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>7</v>
@@ -7094,10 +7088,10 @@
         <v>12</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>133</v>
@@ -7115,10 +7109,10 @@
         <v>38</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>133</v>
@@ -7136,13 +7130,13 @@
         <v>58</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>7</v>
@@ -7157,13 +7151,13 @@
         <v>59</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>7</v>
@@ -7178,10 +7172,10 @@
         <v>9</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>133</v>
@@ -7199,10 +7193,10 @@
         <v>8</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>133</v>
@@ -7220,7 +7214,7 @@
         <v>6</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>186</v>
@@ -7238,16 +7232,16 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>7</v>
@@ -7259,16 +7253,16 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>7</v>
@@ -7280,10 +7274,10 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>181</v>
@@ -7301,10 +7295,10 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>189</v>
@@ -7322,16 +7316,16 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>7</v>
@@ -7343,16 +7337,16 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>7</v>
@@ -7364,10 +7358,10 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>184</v>
@@ -7385,13 +7379,13 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>148</v>
@@ -7406,16 +7400,16 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>7</v>
@@ -7427,13 +7421,13 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>148</v>
@@ -7448,16 +7442,16 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>7</v>
@@ -7469,16 +7463,16 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>7</v>
@@ -7490,16 +7484,16 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>197</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>7</v>
@@ -7511,16 +7505,16 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>7</v>
@@ -7532,16 +7526,16 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>7</v>
@@ -7553,13 +7547,13 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>200</v>
@@ -7574,13 +7568,13 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>203</v>
@@ -7595,13 +7589,13 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>231</v>
@@ -7616,13 +7610,13 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>231</v>
@@ -7637,16 +7631,16 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>339</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>7</v>
@@ -7658,16 +7652,16 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>342</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>7</v>
@@ -7679,13 +7673,13 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>221</v>
@@ -7700,13 +7694,13 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>221</v>
@@ -7721,13 +7715,13 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>231</v>
@@ -7742,13 +7736,13 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>231</v>
@@ -7763,13 +7757,13 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>221</v>
@@ -7784,13 +7778,13 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>221</v>
@@ -7805,13 +7799,13 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>200</v>
@@ -7826,13 +7820,13 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>200</v>
@@ -7847,37 +7841,37 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="E246" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J246" s="2"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>589</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>7</v>
@@ -7889,16 +7883,16 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>591</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>7</v>
@@ -7910,16 +7904,16 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>7</v>
@@ -7931,16 +7925,16 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>7</v>
@@ -7952,16 +7946,16 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>598</v>
-      </c>
       <c r="D251" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>7</v>
@@ -7973,34 +7967,34 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>599</v>
+        <v>246</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J252" s="2"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>246</v>
@@ -8015,16 +8009,16 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>7</v>
@@ -8036,16 +8030,16 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>607</v>
-      </c>
       <c r="D255" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>7</v>
@@ -8057,37 +8051,37 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>610</v>
+        <v>355</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>608</v>
+        <v>290</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J256" s="2"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>290</v>
+        <v>609</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>7</v>
@@ -8099,37 +8093,37 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>613</v>
-      </c>
       <c r="E258" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J258" s="2"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>615</v>
-      </c>
       <c r="D259" s="2" t="s">
-        <v>616</v>
+        <v>246</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>7</v>
@@ -8141,16 +8135,16 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>618</v>
+        <v>584</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>246</v>
+        <v>616</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>7</v>
@@ -8162,16 +8156,16 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>620</v>
+        <v>246</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>7</v>
@@ -8183,16 +8177,16 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>622</v>
+        <v>482</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>246</v>
+        <v>516</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>7</v>
@@ -8204,121 +8198,121 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>482</v>
+        <v>621</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>518</v>
+        <v>622</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J263" s="2"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>625</v>
-      </c>
       <c r="D264" s="2" t="s">
-        <v>626</v>
+        <v>62</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J264" s="2"/>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>628</v>
+        <v>498</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>62</v>
+        <v>518</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J265" s="2"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>500</v>
+        <v>627</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>520</v>
+        <v>622</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J266" s="2"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D267" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>626</v>
-      </c>
       <c r="E267" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J267" s="2"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>632</v>
+        <v>733</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>633</v>
+        <v>743</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>634</v>
+        <v>744</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>7</v>
@@ -8330,16 +8324,16 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>737</v>
+        <v>631</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>747</v>
+        <v>389</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>748</v>
+        <v>273</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>7</v>
@@ -8351,16 +8345,16 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>389</v>
+        <v>633</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>7</v>
@@ -8372,16 +8366,16 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D271" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>7</v>
@@ -8393,16 +8387,16 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C272" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>639</v>
-      </c>
       <c r="D272" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>7</v>
@@ -8414,58 +8408,58 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>642</v>
+        <v>743</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>640</v>
+        <v>745</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J273" s="2"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D274" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>749</v>
-      </c>
       <c r="E274" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J274" s="2"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C275" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B275" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>646</v>
-      </c>
       <c r="D275" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>7</v>
@@ -8477,16 +8471,16 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>7</v>
@@ -8498,16 +8492,16 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>651</v>
+        <v>239</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>7</v>
@@ -8519,16 +8513,16 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>239</v>
+        <v>383</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>7</v>
@@ -8540,16 +8534,16 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>383</v>
+        <v>245</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>7</v>
@@ -8561,55 +8555,55 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>245</v>
+        <v>741</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>640</v>
+        <v>742</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J280" s="2"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>745</v>
+        <v>296</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>746</v>
+        <v>282</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J281" s="2"/>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>296</v>
+        <v>654</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>282</v>
@@ -8624,16 +8618,16 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>7</v>
@@ -8645,16 +8639,16 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C284" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>660</v>
-      </c>
       <c r="D284" s="2" t="s">
-        <v>661</v>
+        <v>464</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>7</v>
@@ -8666,58 +8660,58 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>464</v>
+        <v>657</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J285" s="2"/>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>665</v>
+        <v>406</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>661</v>
+        <v>464</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J286" s="2"/>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>406</v>
+        <v>664</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>464</v>
+        <v>636</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>7</v>
@@ -8729,58 +8723,58 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>668</v>
+        <v>289</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J288" s="2"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>289</v>
+        <v>667</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>480</v>
+        <v>636</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J289" s="2"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>7</v>
@@ -8792,16 +8786,16 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>7</v>
@@ -8813,79 +8807,79 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D292" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>661</v>
-      </c>
       <c r="E292" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J292" s="2"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B293" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C293" s="2" t="s">
+      <c r="D293" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="D293" s="2" t="s">
-        <v>678</v>
-      </c>
       <c r="E293" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="J293" s="2"/>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B294" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>680</v>
-      </c>
       <c r="D294" s="2" t="s">
-        <v>681</v>
+        <v>604</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="J294" s="2"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>7</v>
@@ -8897,16 +8891,16 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>685</v>
+        <v>61</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>608</v>
+        <v>62</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>7</v>
@@ -8918,37 +8912,37 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>750</v>
+        <v>682</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>61</v>
+        <v>683</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>62</v>
+        <v>684</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="J297" s="2"/>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C298" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B298" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>687</v>
-      </c>
       <c r="D298" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>7</v>
@@ -8960,37 +8954,37 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>689</v>
+        <v>39</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>753</v>
+        <v>728</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>690</v>
+        <v>544</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J299" s="2"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>546</v>
+        <v>688</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>7</v>
@@ -9002,16 +8996,16 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>7</v>
@@ -9023,16 +9017,16 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>733</v>
+        <v>691</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>694</v>
+        <v>153</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>693</v>
+        <v>536</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>7</v>
@@ -9044,16 +9038,16 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>11</v>
+        <v>692</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>7</v>
@@ -9065,58 +9059,58 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>695</v>
+        <v>728</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>159</v>
+        <v>694</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>538</v>
+        <v>345</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J304" s="2"/>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="D305" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B305" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="E305" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J305" s="2"/>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="B306" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>700</v>
-      </c>
       <c r="D306" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>7</v>
@@ -9128,58 +9122,58 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>703</v>
+        <v>451</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>701</v>
+        <v>192</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J307" s="2"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>451</v>
+        <v>702</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>192</v>
+        <v>703</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J308" s="2"/>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C309" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>706</v>
-      </c>
       <c r="D309" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>7</v>
@@ -9191,37 +9185,37 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>709</v>
+        <v>265</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>707</v>
+        <v>612</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J310" s="2"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>733</v>
+        <v>691</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>265</v>
+        <v>708</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>616</v>
+        <v>99</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>7</v>
@@ -9233,16 +9227,16 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>695</v>
+        <v>728</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>712</v>
+        <v>584</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>99</v>
+        <v>710</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>7</v>
@@ -9254,16 +9248,16 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>588</v>
+        <v>640</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>7</v>
@@ -9275,37 +9269,37 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D314" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="B314" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>716</v>
-      </c>
       <c r="E314" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J314" s="2"/>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C315" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="B315" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>718</v>
-      </c>
       <c r="D315" s="2" t="s">
-        <v>719</v>
+        <v>689</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>7</v>
@@ -9317,31 +9311,31 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>732</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>693</v>
+        <v>720</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J316" s="2"/>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>736</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>723</v>
@@ -9362,40 +9356,40 @@
         <v>725</v>
       </c>
       <c r="B318" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="D318" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="D318" s="2" t="s">
-        <v>728</v>
-      </c>
       <c r="E318" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J318" s="2"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="B319" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D319" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="C319" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>731</v>
-      </c>
       <c r="E319" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J319" s="2"/>
     </row>
@@ -9404,13 +9398,13 @@
         <v>755</v>
       </c>
       <c r="B320" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C320" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="C320" s="2" t="s">
-        <v>757</v>
-      </c>
       <c r="D320" s="2" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>7</v>
@@ -9422,41 +9416,21 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="D321" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="B321" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>758</v>
-      </c>
       <c r="E321" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A322" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="E322" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F322" s="2" t="s">
         <v>69</v>
       </c>
     </row>
